--- a/MATLAB/Sensitivity_and_Confidence_Interval/Initial_Guesses_50_Simulations.xlsx
+++ b/MATLAB/Sensitivity_and_Confidence_Interval/Initial_Guesses_50_Simulations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/LayeredSpheres_DDSdesign-master/MATLAB/Parameter_Estimation_Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echacinr\OneDrive - University at Buffalo\Desktop\LayeredSpheres_DDSdesign-master\MATLAB\Sensitivity_and_Confidence_Interval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="732" documentId="8_{0C72D746-0050-4911-B2FB-03A3CF241C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A90BF0E-1C74-458E-8E9C-2745498AC191}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0639EF7C-A062-4BF2-BD33-BF2933F8AE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="2" xr2:uid="{F3D94057-6845-4803-AE2C-9E4A9CED9EA0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="3" xr2:uid="{F3D94057-6845-4803-AE2C-9E4A9CED9EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="BSA_MAT" sheetId="1" r:id="rId1"/>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776A9580-71F7-4D76-A6A5-BAB1DF238142}">
   <dimension ref="A1:BA173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4.0199999999999996</v>
+        <v>4.58</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -5116,8 +5116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BCEE5F-E4A4-441E-AF4C-FA373F005457}">
   <dimension ref="A1:X173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9767,8 +9767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AE0654-5E8C-46B9-B899-B6F5B00C3969}">
   <dimension ref="A1:BG173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9.52</v>
+        <v>10.17</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -11730,7 +11730,7 @@
         <v>2.6274786300750799E-15</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" ref="L35:L66" si="3">K35*1000</f>
+        <f t="shared" ref="L35:L52" si="3">K35*1000</f>
         <v>2.6274786300750799E-12</v>
       </c>
       <c r="M35" s="2">
@@ -14405,8 +14405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072900B7-9C8E-4910-8B75-EE2A44C7E436}">
   <dimension ref="A1:X173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R171" sqref="R171"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
